--- a/jtagulator_bom.xlsx
+++ b/jtagulator_bom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Datasheets/Equipment/jtagulator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tono/Documents/GitHub/jtagulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180A47E9-E8B6-2A4A-A1A4-17E760D2CD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5621BA93-83B5-A44C-87CB-CEC1178E25AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{B3310DE4-0F79-D94B-BBB3-E847671549AC}"/>
   </bookViews>
@@ -832,12 +832,14 @@
   <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
